--- a/Product/TableSources/ArenaConfig.xlsx
+++ b/Product/TableSources/ArenaConfig.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>擂台币结算奖励</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>int</t>
@@ -67,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -88,39 +91,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +144,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +189,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -188,7 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,37 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +250,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,145 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +459,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -467,15 +494,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,23 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +559,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,130 +577,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,12 +1061,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="2"/>
@@ -1090,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1098,78 +1101,89 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="12.85" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <v>80</v>
+      <c r="C8" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
         <v>50</v>
       </c>
     </row>
